--- a/biology/Microbiologie/Climacostomidae/Climacostomidae.xlsx
+++ b/biology/Microbiologie/Climacostomidae/Climacostomidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Climacostomidae sont une famille de Ciliés de la classe des Heterotrichea et de l’ordre des Heterotrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Climacostomum, dérivé du grec κλιμάκιο / klimákio, petite échelle, et στόμα / stoma, bouche.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De taille moyenne à grosse (jusqu'à 360 μm) Climacostomum est incolore ou de couleur verte due à la présence de zoochlorelles et en forme de sac, modérément aplatie dorso-ventralement. La surface abdominale est plate à quelque peu creusée, le dos est arqué. Le côté droit est modérément convexe, à légèrement concave.
 Ils sont très peu contractiles.
@@ -551,7 +567,7 @@
 À l’extrémité postérieure existe une vacuole contractile pourvue de deux canaux d'alimentation, qui cheminent de chaque côtés jusqu’à l'extrémité antérieure ; cependant, le canal droit est souvent absent.
 Le macronucléus est ovale et central ou longuement rubané et en forme d'alambic.
 Les mouvements de l'organisme sont rapides, le plus souvent en cercles d’envergure égale à courbure du corps.
-Les kystes sont ovales à piriformes (en forme de poire)[1].
+Les kystes sont ovales à piriformes (en forme de poire).
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Climacostomum regroupe des organismes d'eau douce[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Climacostomum regroupe des organismes d'eau douce.
 </t>
         </is>
       </c>
@@ -611,10 +629,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (21 janvier 2023)[2] :
-Climacostomum Stein, 1859  genre type[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (21 janvier 2023) :
+Climacostomum Stein, 1859  genre type.
 Synonyme Spirostomum virens Ehrbg., 1834
 Fabrea Henneguy, 1890
 Parastentor Vuxanovici, 1961
@@ -650,9 +670,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Climacostomidae Repak, 1972[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Climacostomidae Repak, 1972.
 </t>
         </is>
       </c>
